--- a/JavaProject/tech/20190823-表格.xlsx
+++ b/JavaProject/tech/20190823-表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="417"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="417" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="时间轴" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Component" sheetId="5" r:id="rId5"/>
     <sheet name="MQ" sheetId="6" r:id="rId6"/>
     <sheet name="RocketMQ" sheetId="7" r:id="rId7"/>
+    <sheet name="MySQL" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
   <si>
     <t>Java</t>
   </si>
@@ -358,6 +359,112 @@
   </si>
   <si>
     <t>Scala语言</t>
+  </si>
+  <si>
+    <t>默认状态</t>
+  </si>
+  <si>
+    <t>启动配置</t>
+  </si>
+  <si>
+    <t>默认配置</t>
+  </si>
+  <si>
+    <t>查看</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>记录内容</t>
+  </si>
+  <si>
+    <t>老版本启动配置</t>
+  </si>
+  <si>
+    <t>错误日志</t>
+  </si>
+  <si>
+    <t>默认启动</t>
+  </si>
+  <si>
+    <t>--log-error[=file_name]</t>
+  </si>
+  <si>
+    <t>缺省日志名：host_name.err
+缺省路径：DATADIR</t>
+  </si>
+  <si>
+    <t>错误日志，记录了mysqld启动、停止时，以及服务器运行中发生任何严重错误时的相关信息。</t>
+  </si>
+  <si>
+    <t>二进制日志</t>
+  </si>
+  <si>
+    <t>--log-bin[=file_name]
+--binlog_format=STATEMENT、ROW、MIXED</t>
+  </si>
+  <si>
+    <t>缺省日志名：host-bin
+缺省路径：DATADIR</t>
+  </si>
+  <si>
+    <t>由于日志以二进制方式存储，不能直接读取，需要用mysqlbinlog工具来查看：
+mysqlbinlog log-file</t>
+  </si>
+  <si>
+    <t>1、删除二进制日志：reset master
+2、purge master logs to 'mysql-bin.***' 命令
+3、purge master logs before 'yyyy-mm-dd HH:mm:ss' 命令
+4、设置 --expire_logs_days=#</t>
+  </si>
+  <si>
+    <t>二进制文件(BinLog)，记录了所有DDL、DML语句，但不包括数据查询语句。它描述了数据的更改过程，此日志对灾难时的数据恢复起着极其重要的作用。</t>
+  </si>
+  <si>
+    <t>查询日志</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--log-output[=TABLE、FILE、NONE]
+--general_log[={0|1}]
+--general_log_file=file_name
+</t>
+  </si>
+  <si>
+    <t>默认文件名：host_name.log
+默认路径：DATADIR</t>
+  </si>
+  <si>
+    <t>查询日志记录的格式是纯文本，可以直接进行读取，如 more localhost.log</t>
+  </si>
+  <si>
+    <t>查询日志记录了客户端的所有语句，而二进制日志不包含只查询数据的语句。</t>
+  </si>
+  <si>
+    <t>慢查询日志</t>
+  </si>
+  <si>
+    <t>默认关闭</t>
+  </si>
+  <si>
+    <t>--log-slow-admin-statements
+--log_quries_not_using_indexes
+--slow_query_log[={0|1}]
+--slow_query_log_file[=file_name] 
+--log-output=[table\file\none]</t>
+  </si>
+  <si>
+    <t>默认路径：DATADIR
+默认文件名：host_name-slow.log</t>
+  </si>
+  <si>
+    <t>和错误日志、查询日志一样，慢查询日志记录的格式也是纯文本，可以被直接读取，如 more host-slow.log。</t>
+  </si>
+  <si>
+    <t>慢查询日志记录了所有执行时间超过参数long_query_time(单位：秒)值、且扫描记录数不小于min_examined_row_limit 的所有SQL语句的日志</t>
+  </si>
+  <si>
+    <t>在MySQL 5.1.29之前，使用 --log-slow-quries[=file_name]</t>
   </si>
 </sst>
 </file>
@@ -367,8 +474,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -424,30 +531,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,14 +552,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -485,6 +576,22 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -508,7 +615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,14 +623,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,17 +653,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,7 +671,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,187 +686,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,6 +895,98 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="medium">
         <color auto="1"/>
@@ -813,23 +1024,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -837,95 +1052,23 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -938,11 +1081,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,21 +1135,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -987,45 +1145,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1034,10 +1153,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1046,16 +1165,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1064,106 +1183,97 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1172,27 +1282,66 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1201,128 +1350,134 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1645,220 +1800,220 @@
   <sheetPr/>
   <dimension ref="B1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4" style="38" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="38" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="38" customWidth="1"/>
-    <col min="4" max="4" width="29.625" style="38" customWidth="1"/>
-    <col min="5" max="16384" width="12.75" style="38" customWidth="1"/>
+    <col min="1" max="1" width="4" style="48" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="48" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="48" customWidth="1"/>
+    <col min="4" max="4" width="29.625" style="48" customWidth="1"/>
+    <col min="5" max="16384" width="12.75" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25"/>
     <row r="2" ht="14.25" spans="2:4">
-      <c r="B2" s="39"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="51" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="24" spans="2:4">
-      <c r="B3" s="42">
+      <c r="B3" s="52">
         <v>33329</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="42">
+      <c r="B4" s="52">
         <v>34820</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="54"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="42">
+      <c r="B5" s="52">
         <v>35065</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="44"/>
+      <c r="D5" s="54"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="42">
+      <c r="B6" s="52">
         <v>35462</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="42">
+      <c r="B7" s="52">
         <v>36130</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="44"/>
+      <c r="D7" s="54"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="42">
+      <c r="B8" s="52">
         <v>36647</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="44"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" ht="36" spans="2:4">
-      <c r="B9" s="42">
+      <c r="B9" s="52">
         <v>37288</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="24" spans="2:4">
-      <c r="B10" s="42"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="45" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="42">
+      <c r="B11" s="52">
         <v>38231</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" ht="24" spans="2:4">
-      <c r="B12" s="42"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="45" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="55" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="42">
+      <c r="B13" s="52">
         <v>39052</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="55"/>
       <c r="F13"/>
       <c r="G13"/>
     </row>
     <row r="14" ht="24" spans="2:7">
-      <c r="B14" s="46"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="45" t="s">
+      <c r="B14" s="56"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="55" t="s">
         <v>14</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
     </row>
     <row r="15" ht="24" spans="2:7">
-      <c r="B15" s="46"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="45" t="s">
+      <c r="B15" s="56"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="55" t="s">
         <v>15</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="42">
+      <c r="B16" s="52">
         <v>40725</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="55"/>
       <c r="F16"/>
       <c r="G16"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="42">
+      <c r="B17" s="52">
         <v>41699</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="45"/>
+      <c r="D17" s="55"/>
       <c r="F17"/>
       <c r="G17"/>
     </row>
     <row r="18" ht="24" spans="2:4">
-      <c r="B18" s="42"/>
-      <c r="D18" s="45" t="s">
+      <c r="B18" s="52"/>
+      <c r="D18" s="55" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="42">
+      <c r="B19" s="52">
         <v>42979</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="55" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="42">
+      <c r="B20" s="52">
         <v>43160</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="44"/>
+      <c r="D20" s="54"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="42">
+      <c r="B21" s="52">
         <v>43344</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="42">
+      <c r="B22" s="52">
         <v>43525</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="44"/>
+      <c r="D22" s="54"/>
     </row>
     <row r="23" ht="14.25" spans="2:4">
-      <c r="B23" s="47">
+      <c r="B23" s="57">
         <v>43709</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="48"/>
+      <c r="D23" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1884,34 +2039,34 @@
   <sheetData>
     <row r="1" ht="14.25"/>
     <row r="2" ht="14.25" spans="2:3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="2:3">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="45" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:3">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="45" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" ht="15" spans="2:3">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="47" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1948,184 +2103,184 @@
   <sheetData>
     <row r="1" ht="14.25"/>
     <row r="2" ht="14.25" spans="2:6">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" ht="81" spans="2:6">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" ht="14.25" spans="2:6">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" ht="81" spans="2:6">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="40" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:6">
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" ht="81" spans="2:6">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" ht="14.25" spans="2:6">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" ht="94.5" spans="2:6">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="31"/>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" ht="14.25" spans="2:6">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" ht="40.5" spans="2:6">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="31"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="41"/>
     </row>
     <row r="12" ht="14.25" spans="2:6">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" ht="67.5" spans="2:6">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="31"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="41"/>
     </row>
     <row r="14" ht="14.25" spans="2:6">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="9"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="20"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="30"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="20"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="30"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="20"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="30"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" ht="14.25" spans="2:6">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2140,7 +2295,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2203,89 +2358,222 @@
   <sheetData>
     <row r="1" ht="14.25"/>
     <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="C2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="2:6">
+      <c r="B7" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="37.375" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="6" max="6" width="29.375" customWidth="1"/>
+    <col min="7" max="7" width="36.375" customWidth="1"/>
+    <col min="8" max="8" width="40.125" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="14.25" spans="2:9">
+      <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
+        <v>83</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="2:9">
+      <c r="B3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" ht="67.5" spans="2:9">
+      <c r="B4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" ht="54" spans="2:9">
+      <c r="B5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" ht="68.25" spans="2:9">
       <c r="B6" s="5" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="2:6">
-      <c r="B7" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>81</v>
+        <v>106</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/JavaProject/tech/20190823-表格.xlsx
+++ b/JavaProject/tech/20190823-表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="516"/>
+    <workbookView windowWidth="22185" windowHeight="12270" tabRatio="516"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,30 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>123456</author>
+  </authors>
+  <commentList>
+    <comment ref="D13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">在 JDK 1.6 之前，synchronized 是重量级锁，效率低下。
+从 JDK 1.6 开始，synchronized 做了很多优化，如偏向锁、轻量级锁、自旋锁、适应性自旋锁、锁消除、锁粗化等技术来减少锁操作的开销。
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
@@ -79,17 +103,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="130">
-  <si>
-    <t>timeline/timeaxis</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="137">
+  <si>
+    <t>timeline</t>
+  </si>
+  <si>
+    <t>timeaxis</t>
   </si>
   <si>
     <t>Java</t>
   </si>
   <si>
+    <t>Java变更</t>
+  </si>
+  <si>
     <t>Spring</t>
   </si>
   <si>
+    <t>Spring变更</t>
+  </si>
+  <si>
     <t>由James Gosling领导的绿色计划(Green Project)开始启动</t>
   </si>
   <si>
@@ -99,19 +132,30 @@
     <t>JDK 1.0发布</t>
   </si>
   <si>
+    <t>JDK1.0集合接口：Vector、Stack、Hashtable、BitSet、Enumeration。
+JDK1.0的IO接口：InputStream、OutputStream、FileInputStream。</t>
+  </si>
+  <si>
     <t>JDK 1.1发布</t>
   </si>
   <si>
+    <t>JDK1.1的IO接口：Reader、Writer</t>
+  </si>
+  <si>
     <t>JDK 1.2发布</t>
   </si>
   <si>
+    <t>JDK1.2新增集合接口：Collection、List、ArrayList、LinkedList、Iterator。
+JDK1.2新增同步封装类，如Collections.synchronized**()。</t>
+  </si>
+  <si>
     <t>JDK 1.3发布</t>
   </si>
   <si>
     <t>JDK 1.4发布</t>
   </si>
   <si>
-    <t>1、新增java.nio；</t>
+    <t>JDK1.4新增java.nio。</t>
   </si>
   <si>
     <t>2002年10月，Rod Johnson发布《Expert One-on-One J2EE设计和开发》一书</t>
@@ -123,9 +167,10 @@
     <t>JDK 1.5发布</t>
   </si>
   <si>
-    <t>1、新增泛型；
-2、新增注解；
-3、引入并发包，如ReentrantLock；提供了Callable\Future</t>
+    <t>JDK5新增泛型。
+JDK5新增集合接口：Iterable。
+JDK5新增并发包，含ReentrantLock、Callable\Future,并发集合、阻塞队列。
+JDK5新增注解。</t>
   </si>
   <si>
     <t>2006年10月，Spring 2.0发布，增加了对注解的支持，实现了基于注解的配置</t>
@@ -134,6 +179,9 @@
     <t>JDK 6发布</t>
   </si>
   <si>
+    <t>JDK6为synchronized新增了偏向锁、轻量级锁。</t>
+  </si>
+  <si>
     <t>2007年11月，Spring 2.5发布，支持Java 5</t>
   </si>
   <si>
@@ -143,7 +191,8 @@
     <t>JDK 7发布</t>
   </si>
   <si>
-    <t>1、新增java.aio；</t>
+    <t>JDK7新增Phaser\Exchanger同步工具。
+JDK7新增java.aio。</t>
   </si>
   <si>
     <t>Java 8发布</t>
@@ -530,8 +579,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -573,32 +622,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,37 +653,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,8 +674,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,22 +706,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,23 +760,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -727,8 +771,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -743,13 +792,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,7 +900,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,61 +966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,96 +978,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1090,6 +1145,230 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1108,59 +1387,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1176,6 +1402,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1198,10 +1433,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1210,137 +1445,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1482,34 +1717,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1837,259 +2105,355 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H24"/>
+  <dimension ref="B1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4" style="46" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="46" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="46" customWidth="1"/>
-    <col min="4" max="4" width="29.125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="46" customWidth="1"/>
+    <col min="4" max="4" width="70.125" style="46" customWidth="1"/>
     <col min="5" max="5" width="29.625" style="46" customWidth="1"/>
-    <col min="6" max="16384" width="12.75" style="46" customWidth="1"/>
+    <col min="6" max="6" width="31.75" style="46" customWidth="1"/>
+    <col min="7" max="16384" width="12.75" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3">
+    <row r="1" ht="14.25" spans="2:3">
+      <c r="B1" s="46" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="46" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25"/>
-    <row r="3" ht="14.25" spans="2:5">
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49" t="s">
+    </row>
+    <row r="2" ht="14.25" spans="2:6">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" ht="24" spans="2:5">
-      <c r="B4" s="50">
+      <c r="D2" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="2:6">
+      <c r="B3" s="50">
         <v>33329</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="50">
+      <c r="C3" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+    </row>
+    <row r="4" ht="27" spans="2:6">
+      <c r="B4" s="53">
         <v>34820</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="50">
+      <c r="C4" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+    </row>
+    <row r="5" ht="27" spans="2:6">
+      <c r="B5" s="56">
         <v>35065</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="52"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="50">
+      <c r="C5" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="2:6">
+      <c r="B6" s="53">
         <v>35462</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="52"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="50">
+      <c r="C6" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+    </row>
+    <row r="7" ht="40.5" spans="2:6">
+      <c r="B7" s="56">
         <v>36130</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="52"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="50">
+      <c r="C7" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="53">
         <v>36647</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="52"/>
-    </row>
-    <row r="10" ht="36" spans="2:5">
-      <c r="B10" s="50">
+      <c r="C8" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
+    </row>
+    <row r="9" ht="40.5" spans="2:6">
+      <c r="B9" s="56">
         <v>37288</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" ht="24" spans="2:5">
-      <c r="B11" s="50"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" ht="48" spans="2:5">
-      <c r="B12" s="50">
+      <c r="C9" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="61"/>
+    </row>
+    <row r="10" ht="27" spans="2:6">
+      <c r="B10" s="53"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="62"/>
+    </row>
+    <row r="11" ht="54" spans="2:6">
+      <c r="B11" s="56">
         <v>38231</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="53"/>
-    </row>
-    <row r="13" ht="24" spans="2:5">
-      <c r="B13" s="50"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="50">
+      <c r="C11" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="58"/>
+      <c r="F11" s="61"/>
+    </row>
+    <row r="12" ht="40.5" spans="2:6">
+      <c r="B12" s="53"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="62"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="56">
         <v>39052</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="53"/>
-      <c r="G14"/>
+      <c r="C13" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="58"/>
+      <c r="F13" s="61"/>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" ht="27" spans="2:9">
+      <c r="B14" s="63"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="62"/>
       <c r="H14"/>
-    </row>
-    <row r="15" ht="24" spans="2:8">
-      <c r="B15" s="54"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" ht="27" spans="2:9">
+      <c r="B15" s="64"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="61"/>
       <c r="H15"/>
-    </row>
-    <row r="16" ht="24" spans="2:8">
-      <c r="B16" s="54"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" ht="27" spans="2:9">
+      <c r="B16" s="53">
+        <v>40725</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="62"/>
       <c r="H16"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="50">
-        <v>40725</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="53"/>
-      <c r="G17"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="56">
+        <v>41699</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="61"/>
       <c r="H17"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="50">
-        <v>41699</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="53"/>
-      <c r="G18"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" ht="24" spans="2:5">
-      <c r="B19" s="50"/>
-      <c r="E19" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="50">
+      <c r="I17"/>
+    </row>
+    <row r="18" ht="27" spans="2:6">
+      <c r="B18" s="53"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="62"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="56">
         <v>42979</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="50">
+      <c r="C19" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="61"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="53">
         <v>43160</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="52"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="50">
+      <c r="C20" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="56">
         <v>43344</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="52"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="50">
+      <c r="C21" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="53">
         <v>43525</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="52"/>
-    </row>
-    <row r="24" ht="14.25" spans="2:5">
-      <c r="B24" s="55">
+      <c r="C22" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
+    </row>
+    <row r="23" ht="14.25" spans="2:6">
+      <c r="B23" s="65">
         <v>43709</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="56"/>
+      <c r="C23" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:F2">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{31f5469b-d72d-47b2-b210-e02a0e3852ed}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:F23">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2544ea47-1712-4827-9441-306e51b43330}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{31f5469b-d72d-47b2-b210-e02a0e3852ed}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:F2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2544ea47-1712-4827-9441-306e51b43330}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C3:F23</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2112,48 +2476,48 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2165,7 +2529,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:C5"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2178,37 +2542,36 @@
     <col min="3" max="3" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
     <row r="2" ht="14.25" spans="2:3">
       <c r="B2" s="40" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="2:3">
       <c r="B3" s="42" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:3">
       <c r="B4" s="42" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" ht="15" spans="2:3">
       <c r="B5" s="44" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2226,7 +2589,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F19"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2242,40 +2605,39 @@
     <col min="6" max="6" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
-    <row r="2" ht="14.25" spans="2:6">
+    <row r="2" spans="2:6">
       <c r="B2" s="27" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" ht="81" spans="2:6">
       <c r="B3" s="30" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" ht="14.25" spans="2:6">
+    <row r="4" spans="2:6">
       <c r="B4" s="33"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -2284,22 +2646,22 @@
     </row>
     <row r="5" ht="81" spans="2:6">
       <c r="B5" s="35" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="2:6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="33"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -2308,20 +2670,20 @@
     </row>
     <row r="7" ht="81" spans="2:6">
       <c r="B7" s="35" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F7" s="39"/>
     </row>
-    <row r="8" ht="14.25" spans="2:6">
+    <row r="8" spans="2:6">
       <c r="B8" s="33"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -2330,20 +2692,20 @@
     </row>
     <row r="9" ht="94.5" spans="2:6">
       <c r="B9" s="35" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F9" s="39"/>
     </row>
-    <row r="10" ht="14.25" spans="2:6">
+    <row r="10" spans="2:6">
       <c r="B10" s="33"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -2352,18 +2714,18 @@
     </row>
     <row r="11" ht="40.5" spans="2:6">
       <c r="B11" s="35" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="39"/>
     </row>
-    <row r="12" ht="14.25" spans="2:6">
+    <row r="12" spans="2:6">
       <c r="B12" s="33"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -2372,18 +2734,18 @@
     </row>
     <row r="13" ht="67.5" spans="2:6">
       <c r="B13" s="35" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="39"/>
     </row>
-    <row r="14" ht="14.25" spans="2:6">
+    <row r="14" spans="2:6">
       <c r="B14" s="33"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -2392,7 +2754,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="30" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
@@ -2416,7 +2778,7 @@
       <c r="E18" s="31"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" ht="14.25" spans="2:6">
+    <row r="19" spans="2:6">
       <c r="B19" s="33"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -2449,7 +2811,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I6"/>
+  <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -2468,110 +2830,109 @@
     <col min="9" max="9" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
-    <row r="2" ht="14.25" spans="2:9">
+    <row r="2" spans="2:9">
       <c r="B2" s="17"/>
       <c r="C2" s="18" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="27" spans="2:9">
       <c r="B3" s="19" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="I3" s="25"/>
     </row>
     <row r="4" ht="81" spans="2:9">
       <c r="B4" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>92</v>
+        <v>98</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>99</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I4" s="25"/>
     </row>
     <row r="5" ht="54" spans="2:9">
       <c r="B5" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>98</v>
+        <v>104</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>105</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I5" s="25"/>
     </row>
     <row r="6" ht="68.25" spans="2:9">
       <c r="B6" s="21" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>104</v>
+        <v>110</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>111</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="23" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2615,7 +2976,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F7"/>
+  <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
@@ -2631,39 +2992,38 @@
     <col min="6" max="6" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
@@ -2671,51 +3031,51 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="2:6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/JavaProject/tech/20190823-表格.xlsx
+++ b/JavaProject/tech/20190823-表格.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="12270" tabRatio="516"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="806" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
-    <sheet name="Iterable" sheetId="9" r:id="rId2"/>
-    <sheet name="Spring" sheetId="2" r:id="rId3"/>
-    <sheet name="Persist" sheetId="3" r:id="rId4"/>
-    <sheet name="DB" sheetId="4" r:id="rId5"/>
-    <sheet name="MySQL" sheetId="8" r:id="rId6"/>
-    <sheet name="Component" sheetId="5" r:id="rId7"/>
-    <sheet name="MQ" sheetId="6" r:id="rId8"/>
-    <sheet name="RocketMQ" sheetId="7" r:id="rId9"/>
+    <sheet name="JDK" sheetId="10" r:id="rId2"/>
+    <sheet name="Iterable" sheetId="9" r:id="rId3"/>
+    <sheet name="Spring" sheetId="2" r:id="rId4"/>
+    <sheet name="Persist" sheetId="3" r:id="rId5"/>
+    <sheet name="DB" sheetId="4" r:id="rId6"/>
+    <sheet name="MySQL" sheetId="8" r:id="rId7"/>
+    <sheet name="Component" sheetId="5" r:id="rId8"/>
+    <sheet name="MQ" sheetId="6" r:id="rId9"/>
+    <sheet name="RocketMQ" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -27,7 +28,7 @@
     <author>123456</author>
   </authors>
   <commentList>
-    <comment ref="D13" authorId="0">
+    <comment ref="D14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,6 +47,28 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>123456</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>D:\Program Files\Java\jdk1.8.0_112\jre\lib\rt.jar</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
@@ -103,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="213">
   <si>
     <t>timeline</t>
   </si>
@@ -146,7 +169,8 @@
   </si>
   <si>
     <t>JDK1.2新增集合接口：Collection、List、ArrayList、LinkedList、Iterator。
-JDK1.2新增同步封装类，如Collections.synchronized**()。</t>
+JDK1.2新增同步封装类，如Collections.synchronized**()。
+JDK1.2扩充了引用的概念，强软弱虚引用。</t>
   </si>
   <si>
     <t>JDK 1.3发布</t>
@@ -167,9 +191,9 @@
     <t>JDK 1.5发布</t>
   </si>
   <si>
-    <t>JDK5新增泛型。
-JDK5新增集合接口：Iterable。
-JDK5新增并发包，含ReentrantLock、Callable\Future,并发集合、阻塞队列。
+    <t>JDK5新增泛型、自动装箱\拆箱。
+JDK5新增集合接口：Iterable、foreach循环遍历。
+JDK5新增并发包，含Lock\Condition、Callable\Future、执行器框架(Executor)、并发集合、阻塞队列。
 JDK5新增注解。</t>
   </si>
   <si>
@@ -191,7 +215,7 @@
     <t>JDK 7发布</t>
   </si>
   <si>
-    <t>JDK7新增Phaser\Exchanger同步工具。
+    <t>JDK7新增Fork\Join框架、Phaser同步工具。
 JDK7新增java.aio。</t>
   </si>
   <si>
@@ -217,6 +241,243 @@
   </si>
   <si>
     <t>Java 13发布</t>
+  </si>
+  <si>
+    <t>Java 14发布</t>
+  </si>
+  <si>
+    <t>Java 15发布</t>
+  </si>
+  <si>
+    <t>rt.jar</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>java.applet</t>
+  </si>
+  <si>
+    <t>JDK0</t>
+  </si>
+  <si>
+    <t>Applet</t>
+  </si>
+  <si>
+    <t>java.awt</t>
+  </si>
+  <si>
+    <t>Button\Canvas\Checkbox</t>
+  </si>
+  <si>
+    <t>java.beans</t>
+  </si>
+  <si>
+    <t>JDKx</t>
+  </si>
+  <si>
+    <t>Beans\PropertyEditor\WeakIdentityMap(JDKx)\</t>
+  </si>
+  <si>
+    <t>Encoder\XMLEncoder\XMLDecoder\Statement\Expression(JDK4)\</t>
+  </si>
+  <si>
+    <t>Transient(JDK7)</t>
+  </si>
+  <si>
+    <t>java.io</t>
+  </si>
+  <si>
+    <t>InputStream\OutputStream(JDK0)\Reader\Writer(JDK1)</t>
+  </si>
+  <si>
+    <t>java.lang</t>
+  </si>
+  <si>
+    <t>Class\Double\Integer\Throwable\Runnable\Thread\ThreadGroup(JDK0)\ThreadLocal\Comparable(JDK2)</t>
+  </si>
+  <si>
+    <t>java.lang.annotation</t>
+  </si>
+  <si>
+    <t>JDK5</t>
+  </si>
+  <si>
+    <t>Annotation\Retention\Target\Inherited</t>
+  </si>
+  <si>
+    <t>java.lang.ref</t>
+  </si>
+  <si>
+    <t>JDK2</t>
+  </si>
+  <si>
+    <t>Reference\SoftReference\WeakReference\FinalReference\Finalizer</t>
+  </si>
+  <si>
+    <t>java.math</t>
+  </si>
+  <si>
+    <t>BigDecimal\BigInteger</t>
+  </si>
+  <si>
+    <t>java.net</t>
+  </si>
+  <si>
+    <t>Socket\ServerSocket\URL(JDK0)\URI(JDK4)</t>
+  </si>
+  <si>
+    <t>java.nio</t>
+  </si>
+  <si>
+    <t>JDK4</t>
+  </si>
+  <si>
+    <t>Buffer\MappedByteBuffer\Channel\FileChannel\SocketChannel\ServerSocketChannel(JDK4)</t>
+  </si>
+  <si>
+    <t>java.nio.file</t>
+  </si>
+  <si>
+    <t>JDK7</t>
+  </si>
+  <si>
+    <t>Path\Paths\Files(JDK7)</t>
+  </si>
+  <si>
+    <t>java.rmi</t>
+  </si>
+  <si>
+    <t>Naming(JDK0)\Remote(JDK1)</t>
+  </si>
+  <si>
+    <t>java.security</t>
+  </si>
+  <si>
+    <t>Security\Signature\Permission\MessageDigest</t>
+  </si>
+  <si>
+    <t>java.sql</t>
+  </si>
+  <si>
+    <t>Driver\DriverManager\Connection\Statement\ResultSet</t>
+  </si>
+  <si>
+    <t>java.text</t>
+  </si>
+  <si>
+    <t>DateFormat\SimpleDateFormat\DecimalFormat</t>
+  </si>
+  <si>
+    <t>java.time</t>
+  </si>
+  <si>
+    <t>JDK8</t>
+  </si>
+  <si>
+    <t>LocalDate\LocalTime\LocalDateTime\DateTimeFormatter</t>
+  </si>
+  <si>
+    <t>java.util</t>
+  </si>
+  <si>
+    <t>Enumeration\Vector\Stack\Dictionary\Hashtable\Date(JDK0)</t>
+  </si>
+  <si>
+    <t>Iterator\ListIterator\Collection\Map\ArrayList\Arrays\HashMap\Collections\Comparator(JDK2)</t>
+  </si>
+  <si>
+    <t>Timer\TimerTask(JDK3)</t>
+  </si>
+  <si>
+    <t>PriorityQueue\UUID(JDK5)</t>
+  </si>
+  <si>
+    <t>Objects(JDK7)</t>
+  </si>
+  <si>
+    <t>Base64\Optional(JDK8)</t>
+  </si>
+  <si>
+    <t>java.util.concurrent</t>
+  </si>
+  <si>
+    <t>AtomicInteger\Lock\ReadWriteLock\
+BlockingQueue\ConcurrentHashMap\
+CountDownLatch\CyclicBarrier\Semaphore\Exchanger\
+Executor\ExecutorService\AbstractExecutorService\ThreadPoolExecutor\Executors\
+Callable\Future\FutureTask(JDK5)\Phaser(JDK7)</t>
+  </si>
+  <si>
+    <t>java.util.function</t>
+  </si>
+  <si>
+    <t>Function\Predicate\Supplier</t>
+  </si>
+  <si>
+    <t>java.util.jar</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>java.util.loggin</t>
+  </si>
+  <si>
+    <t>Logger\Level\LogManager\Logging(JDK4)</t>
+  </si>
+  <si>
+    <t>java.util.regex</t>
+  </si>
+  <si>
+    <t>Pattern\Matcher(JDK4)\MatchResult(JDK5)\ASCII</t>
+  </si>
+  <si>
+    <t>java.util.spi</t>
+  </si>
+  <si>
+    <t>CalendarDataProvider</t>
+  </si>
+  <si>
+    <t>java.util.stream</t>
+  </si>
+  <si>
+    <t>Stream\Streams\Collector\Collectors</t>
+  </si>
+  <si>
+    <t>java.util.zip</t>
+  </si>
+  <si>
+    <t>CheckedInputStream\CheckedOutputStream\GZIPInputStream\GZIPOutputStream\
+ZipFile\ZipInputStream\ZipOutputStream\
+Checksum\CRC32\</t>
+  </si>
+  <si>
+    <t>javax.accessibility</t>
+  </si>
+  <si>
+    <t>javax.activation</t>
+  </si>
+  <si>
+    <t>javax.activity</t>
+  </si>
+  <si>
+    <t>javax.transaction</t>
+  </si>
+  <si>
+    <t>javax.transaction.xa</t>
+  </si>
+  <si>
+    <t>Xid\XAResource\XAException</t>
+  </si>
+  <si>
+    <t>javax.xml</t>
   </si>
   <si>
     <t>集合</t>
@@ -306,9 +567,6 @@
 java.sql.Statement\PreparedStatement
 java.sql.ResutSet
 </t>
-  </si>
-  <si>
-    <t>rt.jar</t>
   </si>
   <si>
     <t>conn.setAutoCommit(false)
@@ -578,10 +836,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -623,6 +881,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -638,9 +926,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -653,7 +965,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,99 +1018,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,7 +1056,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,37 +1068,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,13 +1104,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,85 +1122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,13 +1140,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,7 +1241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1157,7 +1415,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1172,7 +1430,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1187,7 +1445,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1292,18 +1550,40 @@
       <top style="thin">
         <color theme="4"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color theme="4"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1316,8 +1596,8 @@
       <left style="thin">
         <color theme="4"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color theme="4"/>
       </right>
       <top style="thin">
         <color theme="4"/>
@@ -1328,12 +1608,104 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1361,13 +1733,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1387,41 +1787,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,10 +1814,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1445,137 +1826,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1714,16 +2095,97 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1771,13 +2233,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1845,6 +2319,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11039475" y="425450"/>
+          <a:ext cx="3609975" cy="8934450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2105,297 +2626,404 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I23"/>
+  <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4" style="46" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="46" customWidth="1"/>
-    <col min="4" max="4" width="70.125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="29.625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="31.75" style="46" customWidth="1"/>
-    <col min="7" max="16384" width="12.75" style="46" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="73" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="73" customWidth="1"/>
+    <col min="4" max="4" width="70.125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="29.625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="31.75" style="73" customWidth="1"/>
+    <col min="7" max="16384" width="12.75" style="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="2:3">
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="2:3">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="73" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="2:6">
-      <c r="B2" s="47"/>
-      <c r="C2" s="48" t="s">
+    <row r="2" ht="14.25"/>
+    <row r="3" ht="14.25" spans="2:6">
+      <c r="B3" s="74"/>
+      <c r="C3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F3" s="76" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="2:6">
-      <c r="B3" s="50">
+    <row r="4" ht="27" spans="2:6">
+      <c r="B4" s="77">
         <v>33329</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-    </row>
-    <row r="4" ht="27" spans="2:6">
-      <c r="B4" s="53">
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="80">
         <v>34820</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-    </row>
-    <row r="5" ht="27" spans="2:6">
-      <c r="B5" s="56">
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
+    </row>
+    <row r="6" ht="27" spans="2:6">
+      <c r="B6" s="83">
         <v>35065</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C6" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D6" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
-    </row>
-    <row r="6" ht="24" customHeight="1" spans="2:6">
-      <c r="B6" s="53">
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="80">
         <v>35462</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C7" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D7" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
-    </row>
-    <row r="7" ht="40.5" spans="2:6">
-      <c r="B7" s="56">
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+    </row>
+    <row r="8" ht="40.5" spans="2:6">
+      <c r="B8" s="83">
         <v>36130</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C8" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D8" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="53">
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="80">
         <v>36647</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C9" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-    </row>
-    <row r="9" ht="40.5" spans="2:6">
-      <c r="B9" s="56">
+      <c r="D9" s="87"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
+    </row>
+    <row r="10" ht="40.5" spans="2:6">
+      <c r="B10" s="83">
         <v>37288</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C10" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D10" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E10" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="61"/>
-    </row>
-    <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="53"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="54" t="s">
+      <c r="F10" s="88"/>
+    </row>
+    <row r="11" ht="27" spans="2:6">
+      <c r="B11" s="80"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="62"/>
-    </row>
-    <row r="11" ht="54" spans="2:6">
-      <c r="B11" s="56">
+      <c r="F11" s="89"/>
+    </row>
+    <row r="12" ht="67.5" spans="2:6">
+      <c r="B12" s="83">
         <v>38231</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C12" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D12" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="61"/>
-    </row>
-    <row r="12" ht="40.5" spans="2:6">
-      <c r="B12" s="53"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="85"/>
+      <c r="F12" s="88"/>
+    </row>
+    <row r="13" ht="40.5" spans="2:6">
+      <c r="B13" s="80"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="62"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="56">
+      <c r="F13" s="89"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="83">
         <v>39052</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C14" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D14" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="61"/>
-      <c r="H13"/>
-      <c r="I13"/>
-    </row>
-    <row r="14" ht="27" spans="2:9">
-      <c r="B14" s="63"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="62"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="88"/>
       <c r="H14"/>
       <c r="I14"/>
     </row>
     <row r="15" ht="27" spans="2:9">
-      <c r="B15" s="64"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="61"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="89"/>
       <c r="H15"/>
       <c r="I15"/>
     </row>
     <row r="16" ht="27" spans="2:9">
-      <c r="B16" s="53">
-        <v>40725</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="62"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="88"/>
       <c r="H16"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="56">
-        <v>41699</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="61"/>
+    <row r="17" ht="27" spans="2:9">
+      <c r="B17" s="80">
+        <v>40725</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="81"/>
+      <c r="F17" s="89"/>
       <c r="H17"/>
       <c r="I17"/>
     </row>
-    <row r="18" ht="27" spans="2:6">
-      <c r="B18" s="53"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="54" t="s">
+    <row r="18" spans="2:9">
+      <c r="B18" s="83">
+        <v>41699</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="88"/>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" ht="27" spans="2:6">
+      <c r="B19" s="80"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="62"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="56">
+      <c r="F19" s="89"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="83">
         <v>42979</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C20" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58" t="s">
+      <c r="D20" s="84"/>
+      <c r="E20" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="61"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="53">
+      <c r="F20" s="88"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="80">
         <v>43160</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C21" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="56">
+      <c r="D21" s="87"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="82"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="83">
         <v>43344</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C22" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="53">
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="86"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="80">
         <v>43525</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C23" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
-    </row>
-    <row r="23" ht="14.25" spans="2:6">
-      <c r="B23" s="65">
+      <c r="D23" s="87"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="82"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="83">
         <v>43709</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C24" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="86"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="80">
+        <v>43891</v>
+      </c>
+      <c r="C25" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="92"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="94"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="83">
+        <v>44075</v>
+      </c>
+      <c r="C26" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="86"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="95"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="94"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="91"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="86"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="95"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="94"/>
+    </row>
+    <row r="30" ht="14.25" spans="2:6">
+      <c r="B30" s="96"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="98"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:F2">
+  <conditionalFormatting sqref="B3:F3">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{eae0e76c-13d5-4da0-bbb2-f868160378f0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:D24">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f354a547-8799-4014-afc4-33c172ee0aed}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:F24">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{88ebbe4e-eaa5-485f-84b9-5d4d83d90019}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{94b7798f-351b-40dd-ae09-6cf0a77fed4c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2404,13 +3032,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31f5469b-d72d-47b2-b210-e02a0e3852ed}</x14:id>
+          <x14:id>{3d832b54-df5a-419c-ab5c-54b04d6f7aa7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:F23">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="D26:F26">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2418,7 +3046,35 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2544ea47-1712-4827-9441-306e51b43330}</x14:id>
+          <x14:id>{92dc4188-58c5-4adb-9be2-c00113f0b0ac}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:F28">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a97e8d60-1577-4deb-a2e5-4895f177517b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F23 D25:F25 C27:F27 C29:F30">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0e888cfb-e5df-4510-9ba0-00f33321b525}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2430,7 +3086,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{31f5469b-d72d-47b2-b210-e02a0e3852ed}">
+          <x14:cfRule type="dataBar" id="{eae0e76c-13d5-4da0-bbb2-f868160378f0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2438,10 +3094,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B2:F2</xm:sqref>
+          <xm:sqref>B3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2544ea47-1712-4827-9441-306e51b43330}">
+          <x14:cfRule type="dataBar" id="{f354a547-8799-4014-afc4-33c172ee0aed}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2449,7 +3105,73 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C3:F23</xm:sqref>
+          <xm:sqref>C24:D24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{88ebbe4e-eaa5-485f-84b9-5d4d83d90019}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E24:F24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{94b7798f-351b-40dd-ae09-6cf0a77fed4c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3d832b54-df5a-419c-ab5c-54b04d6f7aa7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{92dc4188-58c5-4adb-9be2-c00113f0b0ac}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D26:F26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{a97e8d60-1577-4deb-a2e5-4895f177517b}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B28:F28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0e888cfb-e5df-4510-9ba0-00f33321b525}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C4:F23 D25:F25 C27:F27 C29:F30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2457,7 +3179,535 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:F7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="38.375" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25"/>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="2:6">
+      <c r="B7" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:D42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="103.75" customWidth="1"/>
+    <col min="5" max="5" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="20" customHeight="1" spans="2:2">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="2:4">
+      <c r="B3" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="2:4">
+      <c r="B4" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="2:4">
+      <c r="B5" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="2:4">
+      <c r="B6" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="2:4">
+      <c r="B7" s="58"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="2:4">
+      <c r="B8" s="59"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="2:4">
+      <c r="B9" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="2:4">
+      <c r="B10" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="2:4">
+      <c r="B11" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="2:4">
+      <c r="B12" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="2:4">
+      <c r="B13" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="2:4">
+      <c r="B14" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="2:4">
+      <c r="B15" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="2:4">
+      <c r="B16" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="2:4">
+      <c r="B17" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="2:4">
+      <c r="B18" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="2:4">
+      <c r="B19" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="2:4">
+      <c r="B20" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="2:4">
+      <c r="B21" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" spans="2:4">
+      <c r="B22" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" spans="2:4">
+      <c r="B23" s="62"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" spans="2:4">
+      <c r="B24" s="62"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" spans="2:4">
+      <c r="B25" s="62"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" spans="2:4">
+      <c r="B26" s="62"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" spans="2:4">
+      <c r="B27" s="63"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" ht="67.5" spans="2:4">
+      <c r="B28" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" spans="2:4">
+      <c r="B29" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" spans="2:4">
+      <c r="B30" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" spans="2:4">
+      <c r="B31" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" spans="2:4">
+      <c r="B32" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" spans="2:4">
+      <c r="B33" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" spans="2:4">
+      <c r="B34" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" ht="41.25" spans="2:4">
+      <c r="B35" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="2:4">
+      <c r="B37" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B22:B27"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:J3"/>
@@ -2476,48 +3726,48 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2526,10 +3776,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:C5"/>
+  <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2542,36 +3792,37 @@
     <col min="3" max="3" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="14.25"/>
     <row r="2" ht="14.25" spans="2:3">
       <c r="B2" s="40" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="2:3">
       <c r="B3" s="42" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:3">
       <c r="B4" s="42" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" ht="15" spans="2:3">
       <c r="B5" s="44" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2586,12 +3837,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F19"/>
+  <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2605,39 +3856,40 @@
     <col min="6" max="6" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="1" ht="14.25"/>
+    <row r="2" ht="14.25" spans="2:6">
       <c r="B2" s="27" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" ht="81" spans="2:6">
       <c r="B3" s="30" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" ht="14.25" spans="2:6">
       <c r="B4" s="33"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -2646,22 +3898,22 @@
     </row>
     <row r="5" ht="81" spans="2:6">
       <c r="B5" s="35" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="2:6">
       <c r="B6" s="33"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -2670,20 +3922,20 @@
     </row>
     <row r="7" ht="81" spans="2:6">
       <c r="B7" s="35" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="F7" s="39"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" ht="14.25" spans="2:6">
       <c r="B8" s="33"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -2692,20 +3944,20 @@
     </row>
     <row r="9" ht="94.5" spans="2:6">
       <c r="B9" s="35" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="F9" s="39"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" ht="14.25" spans="2:6">
       <c r="B10" s="33"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -2714,18 +3966,18 @@
     </row>
     <row r="11" ht="40.5" spans="2:6">
       <c r="B11" s="35" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="39"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" ht="14.25" spans="2:6">
       <c r="B12" s="33"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -2734,18 +3986,18 @@
     </row>
     <row r="13" ht="67.5" spans="2:6">
       <c r="B13" s="35" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="39"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" ht="14.25" spans="2:6">
       <c r="B14" s="33"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -2754,7 +4006,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="30" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
@@ -2778,7 +4030,7 @@
       <c r="E18" s="31"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" ht="14.25" spans="2:6">
       <c r="B19" s="33"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -2792,7 +4044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -2808,10 +4060,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:I6"/>
+  <dimension ref="B1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -2830,109 +4082,110 @@
     <col min="9" max="9" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="1" ht="14.25"/>
+    <row r="2" ht="14.25" spans="2:9">
       <c r="B2" s="17"/>
       <c r="C2" s="18" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="27" spans="2:9">
       <c r="B3" s="19" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="I3" s="25"/>
     </row>
     <row r="4" ht="81" spans="2:9">
       <c r="B4" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>99</v>
+        <v>174</v>
+      </c>
+      <c r="D4" s="99" t="s">
+        <v>175</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="I4" s="25"/>
     </row>
     <row r="5" ht="54" spans="2:9">
       <c r="B5" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>105</v>
+        <v>180</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>181</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="I5" s="25"/>
     </row>
     <row r="6" ht="68.25" spans="2:9">
       <c r="B6" s="21" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>111</v>
+        <v>186</v>
+      </c>
+      <c r="D6" s="100" t="s">
+        <v>187</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="23" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2941,7 +4194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -2957,7 +4210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -2971,115 +4224,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="38.375" customWidth="1"/>
-    <col min="5" max="5" width="8.375" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>